--- a/biology/Botanique/Liste_d'espèces_de_plantes_décrites_entre_1991_et_1995/Liste_d'espèces_de_plantes_décrites_entre_1991_et_1995.xlsx
+++ b/biology/Botanique/Liste_d'espèces_de_plantes_décrites_entre_1991_et_1995/Liste_d'espèces_de_plantes_décrites_entre_1991_et_1995.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_1991_et_1995</t>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_1991_et_1995</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">De nouvelles espèces vivantes sont régulièrement définies chaque année.
 L'apparition d'une nouvelle espèce dans la nomenclature peut se faire de trois manières principales :
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_1991_et_1995</t>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_1991_et_1995</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,6 +531,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_1991_et_1995</t>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_1991_et_1995</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Espèces décrites en 1992
-Neviusia cliftonii Shevock, Ertter &amp; Taylor, 1992
-Rosacéé découverte en Californie[1].
+          <t>Espèces décrites en 1992</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Neviusia cliftonii Shevock, Ertter &amp; Taylor, 1992
+Rosacéé découverte en Californie.
 Zelkova sicula Di Pasquale, Garfi et Quézel, 1992
 Ulmacée découverte en 1991 dans les monts Hybléens en Sicile.</t>
         </is>
@@ -560,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_1991_et_1995</t>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_1991_et_1995</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,6 +598,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -586,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_1991_et_1995</t>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_1991_et_1995</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,6 +626,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -612,7 +635,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_1991_et_1995</t>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_1991_et_1995</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -632,8 +655,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Espèces décrites en 1995
-Pin de Wollemi (Wollemia nobilis Jones, Hill et Allen, 1995)
+          <t>Espèces décrites en 1995</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pin de Wollemi (Wollemia nobilis Jones, Hill et Allen, 1995)
 Araucariacée découverte en 1994 par David Noble, agent du parc national Wollemi, en Australie. Nouveau genre botanique.
 Eidothea zoexylocarya Douglas et Hyland, 1995
 Protéacée découverte en Australie</t>
